--- a/biology/Botanique/Rubus_sanctus/Rubus_sanctus.xlsx
+++ b/biology/Botanique/Rubus_sanctus/Rubus_sanctus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus sanctus est une espèce de plantes à fleurs de la famille des Rosacées.
 C'est une plante ligneuse que l'on trouve en Crète, en Israël, et notamment au Sinaï, en Égypte, où elle est révérée comme le buisson ardent de la Bible. 
